--- a/modelagem.xlsx
+++ b/modelagem.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\funeraria\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9689561-2148-4336-A460-8A4B08814A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>página</t>
   </si>
@@ -103,13 +109,34 @@
   </si>
   <si>
     <t xml:space="preserve">Mostra o relatório financeiro da empresa </t>
+  </si>
+  <si>
+    <t>Melhorar</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>Cadastra as despesas geradas pelos eventos</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Prioridades</t>
+  </si>
+  <si>
+    <t>Editar / excluir</t>
+  </si>
+  <si>
+    <t>Permitir alterações de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,21 +442,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -437,7 +464,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +477,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -462,10 +492,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -479,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -493,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -507,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -521,9 +554,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -535,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -549,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,19 +596,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -588,8 +626,11 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,10 +641,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -615,6 +659,26 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/modelagem.xlsx
+++ b/modelagem.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\funeraria\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9689561-2148-4336-A460-8A4B08814A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15480" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>página</t>
   </si>
@@ -130,13 +124,22 @@
   </si>
   <si>
     <t>Permitir alterações de dados</t>
+  </si>
+  <si>
+    <t>Responsavel</t>
+  </si>
+  <si>
+    <t>PHP Sidnei, DB Anderson</t>
+  </si>
+  <si>
+    <t>PHP Daniel, DB Anderson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,21 +445,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -464,7 +467,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -498,190 +504,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F14">
+    <sortCondition ref="E2"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
